--- a/画面設計書.xlsx
+++ b/画面設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\warashina\Graduation_specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A498BDAA-2148-418B-B2EC-AFB933F0B133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466210B1-C76B-4347-AD67-FD5B57140BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="122">
   <si>
     <t>メダルシステム制カジノ風サイト「Scot Medal Park」</t>
   </si>
@@ -370,31 +370,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>loginID</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>Mymedal</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ログインしているユーザの順位、ユーザ名、所持メダル数、
-を表示する</t>
-    <rPh sb="12" eb="14">
-      <t>ジュンイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ショジ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -487,6 +463,73 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>NickName</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>HLgetMedal</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>データベースに保存されているユーザの所持メダル数の
+降順に並べた時の上から3番目までの所持メダル数を表示する</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>データベースに保存されているユーザの所持メダル数の
+降順に並べた時の上から3番目までのニックネームを表示する</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ログインしているユーザの順位、ニックネーム、所持メダル数、
+を表示する</t>
+    <rPh sb="12" eb="14">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>データベースに保存されているユーザーのH&amp;L獲得メダル数の
+降順に並べた時の上から3番目までのニックネームを表示する</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>データベースに保存されているユーザーのH&amp;L獲得メダル数の
+降順に並べた時の上から3番目までのH&amp;L獲得メダル数を表示する</t>
+    <rPh sb="22" eb="24">
+      <t>カクトク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>カクトク</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>押下時、ホーム画面に遷移する</t>
+    <rPh sb="0" eb="3">
+      <t>オウカトキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -513,11 +556,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -684,7 +729,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -715,6 +760,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -733,12 +793,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -751,23 +805,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -776,7 +821,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -956,22 +1007,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>52754</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>100965</xdr:rowOff>
+      <xdr:rowOff>64477</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>73209</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>158667</xdr:rowOff>
+      <xdr:colOff>487971</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>187862</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F05CA275-7F4E-73A4-2F08-739E7837B6C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19B19A2D-126C-62E4-A215-023F74B210B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -993,8 +1044,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="194310" y="100965"/>
-          <a:ext cx="5868219" cy="3953427"/>
+          <a:off x="187569" y="64477"/>
+          <a:ext cx="6291187" cy="4203016"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1018,8 +1069,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>309079</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>73065</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>23535</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1273,72 +1324,72 @@
   <sheetData>
     <row r="1" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="12">
+      <c r="B8" s="17">
         <v>45940</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2365,43 +2416,43 @@
       <c r="B4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="14"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="17">
+      <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="21">
         <v>45940</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20" t="s">
+      <c r="D5" s="22"/>
+      <c r="E5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="19"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="22">
+      <c r="B6" s="11">
         <v>2</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="25">
         <v>45947</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3416,8 +3467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3431,7 +3482,7 @@
     <col min="10" max="11" width="7.5703125" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" customWidth="1"/>
     <col min="13" max="13" width="44.28515625" customWidth="1"/>
-    <col min="14" max="14" width="51" customWidth="1"/>
+    <col min="14" max="14" width="53.140625" customWidth="1"/>
     <col min="15" max="26" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4598,7 +4649,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4606,10 +4659,11 @@
     <col min="2" max="2" width="7.5703125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="7" width="7.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="12" width="7.5703125" customWidth="1"/>
-    <col min="13" max="13" width="28.85546875" customWidth="1"/>
+    <col min="10" max="11" width="7.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+    <col min="13" max="13" width="39.5703125" customWidth="1"/>
     <col min="14" max="26" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4655,7 +4709,7 @@
         <v>20</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -4743,46 +4797,46 @@
     <row r="8" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
     </row>
     <row r="11" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
     </row>
     <row r="12" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
     </row>
     <row r="13" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
     </row>
     <row r="14" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
@@ -4791,14 +4845,14 @@
       <c r="C14" s="8">
         <v>45940</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
     </row>
     <row r="15" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
@@ -5808,8 +5862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="G1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:M14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6059,7 +6113,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>57</v>
@@ -7087,7 +7141,7 @@
   </sheetPr>
   <dimension ref="F2:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -7224,9 +7278,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="J2:Q13"/>
+  <dimension ref="J2:Q14"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -7264,238 +7318,260 @@
       </c>
     </row>
     <row r="3" spans="10:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J3" s="27">
+      <c r="J3" s="14">
         <v>1</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="27">
+      <c r="M3" s="14">
         <v>3</v>
       </c>
-      <c r="N3" s="27" t="s">
+      <c r="N3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="27" t="s">
+      <c r="O3" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
     </row>
     <row r="4" spans="10:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="27">
+      <c r="J4" s="14">
         <v>2</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="L4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27" t="s">
+      <c r="M4" s="14"/>
+      <c r="N4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="P4" s="27" t="s">
+      <c r="O4" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="P4" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="Q4" s="27"/>
+      <c r="Q4" s="14"/>
     </row>
     <row r="5" spans="10:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J5" s="27">
+      <c r="J5" s="14">
         <v>3</v>
       </c>
-      <c r="K5" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="L5" s="27" t="s">
+      <c r="K5" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="L5" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="O5" s="27" t="s">
+      <c r="M5" s="14"/>
+      <c r="N5" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
+      <c r="O5" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
     </row>
     <row r="6" spans="10:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J6" s="27">
+      <c r="J6" s="14">
         <v>4</v>
       </c>
-      <c r="K6" s="27" t="s">
+      <c r="K6" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="L6" s="27" t="s">
+      <c r="L6" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27" t="s">
+      <c r="M6" s="14"/>
+      <c r="N6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
+      <c r="O6" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="10:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J7" s="27">
+      <c r="J7" s="14">
         <v>5</v>
       </c>
-      <c r="K7" s="27" t="s">
+      <c r="K7" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="L7" s="27" t="s">
+      <c r="L7" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27" t="s">
+      <c r="M7" s="14"/>
+      <c r="N7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
+      <c r="O7" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="10:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J8" s="27">
+      <c r="J8" s="14">
         <v>6</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="L8" s="27" t="s">
+      <c r="L8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27" t="s">
+      <c r="M8" s="14"/>
+      <c r="N8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="27" t="s">
-        <v>107</v>
+      <c r="O8" s="14" t="s">
+        <v>105</v>
       </c>
       <c r="P8" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q8" s="27"/>
+        <v>106</v>
+      </c>
+      <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="10:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J9" s="27">
+      <c r="J9" s="14">
         <v>7</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="L9" s="27" t="s">
+      <c r="L9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27" t="s">
+      <c r="M9" s="14"/>
+      <c r="N9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="27" t="s">
-        <v>107</v>
+      <c r="O9" s="14" t="s">
+        <v>105</v>
       </c>
       <c r="P9" s="29"/>
-      <c r="Q9" s="27"/>
+      <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="10:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J10" s="27">
+      <c r="J10" s="14">
         <v>8</v>
       </c>
-      <c r="K10" s="27" t="s">
+      <c r="K10" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="L10" s="27" t="s">
+      <c r="L10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27" t="s">
+      <c r="M10" s="14"/>
+      <c r="N10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="P10" s="27" t="s">
+      <c r="O10" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="P10" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="Q10" s="27"/>
+      <c r="Q10" s="14"/>
     </row>
     <row r="11" spans="10:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J11" s="27">
+      <c r="J11" s="14">
         <v>9</v>
       </c>
-      <c r="K11" s="27" t="s">
+      <c r="K11" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="L11" s="27" t="s">
+      <c r="L11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27" t="s">
+      <c r="M11" s="14"/>
+      <c r="N11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="O11" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="P11" s="27" t="s">
+      <c r="O11" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="P11" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="Q11" s="27"/>
+      <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="10:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J12" s="27">
+      <c r="J12" s="14">
         <v>10</v>
       </c>
-      <c r="K12" s="27" t="s">
+      <c r="K12" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="L12" s="27" t="s">
+      <c r="L12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27" t="s">
+      <c r="M12" s="14"/>
+      <c r="N12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="P12" s="27" t="s">
+      <c r="O12" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="P12" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="Q12" s="27"/>
+      <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="10:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J13" s="27">
+      <c r="J13" s="31">
         <v>11</v>
       </c>
-      <c r="K13" s="27" t="s">
+      <c r="K13" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="L13" s="27" t="s">
+      <c r="L13" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27" t="s">
+      <c r="M13" s="31"/>
+      <c r="N13" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O13" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="P13" s="27" t="s">
+      <c r="O13" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="P13" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="Q13" s="27"/>
+      <c r="Q13" s="31"/>
+    </row>
+    <row r="14" spans="10:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="32">
+        <v>12</v>
+      </c>
+      <c r="K14" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="O14" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="P14" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q14" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7509,10 +7585,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C7C3F7-CAD5-4A6E-8502-B193A9F2B942}">
-  <dimension ref="H2:O16"/>
+  <dimension ref="H2:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H15"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7520,298 +7596,330 @@
     <col min="1" max="1" width="2.42578125" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
     <col min="13" max="13" width="18.140625" customWidth="1"/>
-    <col min="14" max="14" width="57.5703125" customWidth="1"/>
+    <col min="14" max="14" width="62" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="8:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="22">
+      <c r="H3" s="11">
         <v>1</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22" t="s">
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+    </row>
+    <row r="4" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="11"/>
+      <c r="I6" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="11"/>
+      <c r="I7" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="N7" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-    </row>
-    <row r="4" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="22"/>
-      <c r="I4" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4" s="22" t="s">
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="11"/>
+      <c r="I8" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22" t="s">
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="11"/>
+      <c r="I9" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="11"/>
+      <c r="I10" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="M4" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="N4" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="O4" s="22"/>
-    </row>
-    <row r="5" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H5" s="22"/>
-      <c r="I5" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J5" s="22" t="s">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="8:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="11"/>
+      <c r="I11" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="N5" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="O5" s="22"/>
-    </row>
-    <row r="6" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H6" s="22"/>
-      <c r="I6" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="O6" s="22"/>
-    </row>
-    <row r="7" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H7" s="22"/>
-      <c r="I7" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="N7" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="O7" s="22"/>
-    </row>
-    <row r="8" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H8" s="22"/>
-      <c r="I8" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="N8" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="O8" s="22"/>
-    </row>
-    <row r="9" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="22"/>
-      <c r="I9" s="22" t="s">
+      <c r="K11" s="11"/>
+      <c r="L11" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="M11" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="N11" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="11"/>
+      <c r="I12" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="8:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="11"/>
+      <c r="I13" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="8:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="11"/>
+      <c r="I14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="11"/>
+      <c r="I15" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="11"/>
+      <c r="I16" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="N16" s="26"/>
+      <c r="O16" s="11"/>
+    </row>
+    <row r="17" spans="8:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="M9" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-    </row>
-    <row r="10" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H10" s="22"/>
-      <c r="I10" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="J10" s="22" t="s">
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="O17" s="11"/>
+    </row>
+    <row r="18" spans="8:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-    </row>
-    <row r="11" spans="8:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H11" s="22"/>
-      <c r="I11" s="30" t="s">
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="J11" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="M11" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="N11" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="O11" s="22"/>
-    </row>
-    <row r="12" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H12" s="22"/>
-      <c r="I12" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="M12" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-    </row>
-    <row r="13" spans="8:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H13" s="22"/>
-      <c r="I13" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="M13" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="O13" s="22"/>
-    </row>
-    <row r="14" spans="8:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H14" s="22"/>
-      <c r="I14" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="M14" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="N14" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="O14" s="22"/>
-    </row>
-    <row r="15" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H15" s="22"/>
-      <c r="I15" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="M15" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="N15" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="O15" s="22"/>
-    </row>
-    <row r="16" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="22"/>
-      <c r="I16" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="M16" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="N16" s="24"/>
-      <c r="O16" s="22"/>
+      <c r="N18" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="O18" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/画面設計書.xlsx
+++ b/画面設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\warashina\Graduation_specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466210B1-C76B-4347-AD67-FD5B57140BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2538A0-19C4-4BDF-BE6B-D4821E7BDF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="124">
   <si>
     <t>メダルシステム制カジノ風サイト「Scot Medal Park」</t>
   </si>
@@ -530,6 +530,40 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>bet数が所持メダル数を超えていた場合、
+ボタンを押してもエラーが表示される</t>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ランキングはスクロールして
+TOP100まで閲覧できる</t>
+    <rPh sb="22" eb="24">
+      <t>エツラン</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -593,7 +627,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -725,11 +759,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -773,6 +833,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -823,11 +889,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1013,7 +1085,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>487971</xdr:colOff>
+      <xdr:colOff>491781</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>187862</xdr:rowOff>
     </xdr:to>
@@ -1061,16 +1133,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>567690</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>309079</xdr:colOff>
+      <xdr:colOff>415759</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>23535</xdr:rowOff>
+      <xdr:rowOff>113070</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1099,8 +1171,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="567690" y="64770"/>
-          <a:ext cx="3360889" cy="4843185"/>
+          <a:off x="243840" y="152400"/>
+          <a:ext cx="3374224" cy="4860330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1324,72 +1396,72 @@
   <sheetData>
     <row r="1" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="17">
+      <c r="B8" s="19">
         <v>45940</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2416,43 +2488,43 @@
       <c r="B4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="19"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="23">
         <v>45940</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="22"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11">
         <v>2</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="27">
         <v>45947</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26" t="s">
+      <c r="D6" s="27"/>
+      <c r="E6" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4797,46 +4869,46 @@
     <row r="8" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
     </row>
     <row r="11" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
     </row>
     <row r="12" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
     </row>
     <row r="13" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
     </row>
     <row r="14" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
@@ -4845,14 +4917,14 @@
       <c r="C14" s="8">
         <v>45940</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
     </row>
     <row r="15" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
@@ -7280,8 +7352,8 @@
   </sheetPr>
   <dimension ref="J2:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7289,6 +7361,7 @@
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" customWidth="1"/>
     <col min="16" max="16" width="52.85546875" customWidth="1"/>
+    <col min="17" max="17" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="10:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7438,10 +7511,12 @@
       <c r="O8" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="P8" s="28" t="s">
+      <c r="P8" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="Q8" s="14"/>
+      <c r="Q8" s="34" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="9" spans="10:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J9" s="14">
@@ -7460,8 +7535,8 @@
       <c r="O9" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="14"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="33"/>
     </row>
     <row r="10" spans="10:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J10" s="14">
@@ -7530,52 +7605,53 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="10:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J13" s="31">
+      <c r="J13" s="15">
         <v>11</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="L13" s="31" t="s">
+      <c r="L13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31" t="s">
+      <c r="M13" s="15"/>
+      <c r="N13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="O13" s="31" t="s">
+      <c r="O13" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="P13" s="31" t="s">
+      <c r="P13" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="Q13" s="31"/>
+      <c r="Q13" s="15"/>
     </row>
     <row r="14" spans="10:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J14" s="32">
+      <c r="J14" s="16">
         <v>12</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="L14" s="32" t="s">
+      <c r="L14" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32" t="s">
+      <c r="M14" s="16"/>
+      <c r="N14" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="O14" s="32" t="s">
+      <c r="O14" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="P14" s="32" t="s">
+      <c r="P14" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="Q14" s="32"/>
+      <c r="Q14" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7587,8 +7663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C7C3F7-CAD5-4A6E-8502-B193A9F2B942}">
   <dimension ref="H2:O18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7597,6 +7673,7 @@
     <col min="9" max="9" width="23" customWidth="1"/>
     <col min="13" max="13" width="18.140625" customWidth="1"/>
     <col min="14" max="14" width="62" customWidth="1"/>
+    <col min="15" max="15" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="8:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7829,7 +7906,9 @@
       <c r="N13" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="O13" s="11"/>
+      <c r="O13" s="36" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="14" spans="8:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H14" s="11"/>
@@ -7849,7 +7928,7 @@
       <c r="N14" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="O14" s="11"/>
+      <c r="O14" s="35"/>
     </row>
     <row r="15" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H15" s="11"/>
@@ -7866,7 +7945,7 @@
       <c r="M15" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="N15" s="30" t="s">
+      <c r="N15" s="32" t="s">
         <v>118</v>
       </c>
       <c r="O15" s="11"/>
@@ -7886,7 +7965,7 @@
       <c r="M16" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="N16" s="26"/>
+      <c r="N16" s="28"/>
       <c r="O16" s="11"/>
     </row>
     <row r="17" spans="8:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7922,8 +8001,9 @@
       <c r="O18" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O13:O14"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/画面設計書.xlsx
+++ b/画面設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\warashina\Graduation_specification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n242322\Graduation_specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2538A0-19C4-4BDF-BE6B-D4821E7BDF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4307A9-D414-4BFE-96DB-A08F1F588685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="ゲームリスト画面" sheetId="6" r:id="rId6"/>
     <sheet name="High＆Low" sheetId="7" r:id="rId7"/>
     <sheet name="ランキング" sheetId="8" r:id="rId8"/>
+    <sheet name="実績" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="153">
   <si>
     <t>メダルシステム制カジノ風サイト「Scot Medal Park」</t>
   </si>
@@ -222,10 +223,6 @@
     <t>5000、3000、2000$</t>
   </si>
   <si>
-    <t>データベースに保存されているユーザーの所持メダル数の
-降順に並べた時の上から3番目までの所持メダル数を表示する</t>
-  </si>
-  <si>
     <t>Game List</t>
   </si>
   <si>
@@ -393,9 +390,6 @@
     <t>裏向きのカードがめくられ、当たっていれば「WIN」、
 外れていれば「LOSE」と画面に表示される</t>
     <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>押下時、ホーム画面に遷移する</t>
   </si>
   <si>
     <t>押下時、ホーム画面に遷移する</t>
@@ -534,36 +528,569 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>bet数が所持メダル数を超えていた場合、
-ボタンを押してもエラーが表示される</t>
-    <rPh sb="3" eb="4">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ショジ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>ランキングはスクロールして
 TOP100まで閲覧できる</t>
     <rPh sb="22" eb="24">
       <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ランキングに表示されているニックネームのユーザの所持メダル数を表示する</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>999枚まで賭けることができる</t>
+    <rPh sb="3" eb="4">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>bet数が所持メダル数を超えている、またはベット数が0枚の時、ボタンを押してもエラーが表示される</t>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>総プレイ数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　750</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>総メダル獲得数　15500</t>
+    <rPh sb="0" eb="1">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>カクトクスウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>総メダル消費数　8700</t>
+    <rPh sb="0" eb="1">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ショウヒスウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>現在の所持メダル　10000</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ゲーム、プレイ数、獲得数</t>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カクトクスウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>High &amp; Low</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　5000</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Poker　200　4000</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>BlackJack　150　3500</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>Roulette　100　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3000</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>playCount</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>getCount</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>lostCount</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>MyMedal</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>HLplayCount,HLgetCount</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>PKplayCount,PKgetCount</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>BJplayCount,BJgetCount</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>RLplayCount,RLgetCount</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>押下時、ショップ画面に遷移する</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>押下時、実績画面に遷移する</t>
+    <rPh sb="4" eb="6">
+      <t>ジッセキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>押下時、ランキング画面に遷移する</t>
+    <rPh sb="2" eb="3">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>全てのゲームのプレイ回数の合計が表示される</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>全てのゲームの獲得数の合計が表示される</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>カクトクスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>全てのゲームの消費数の合計が表示される</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ショウヒスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>現在の所持メダルが表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>High &amp; Lowのプレイ回数と獲得数が表示される</t>
+    <rPh sb="14" eb="16">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>カクトクスウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ルーレットのプレイ回数と獲得数が表示される</t>
+    <rPh sb="9" eb="11">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>カクトクスウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ブラックジャックのプレイ回数と獲得数が表示される</t>
+    <rPh sb="12" eb="14">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>カクトクスウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ポーカーのプレイ回数と獲得数が表示される</t>
+    <rPh sb="8" eb="10">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>カクトクスウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>グラフを画面右側に表示させ、タイトルに「所持メダル　推移」と表示。
+一日のうち</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0:00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23:59</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に所持メダルのデータを集計し、
+データが同じだった場合はグラフには何も記録しない。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>変化があった場合は、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23:59</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>時点の所持メダル数を表記させる。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+左側に所持メダル数、下側に日付を記録し、所持メダルの推移をグラフ化して可視化する。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>グラフは10日分表記される。</t>
+    </r>
+    <rPh sb="4" eb="8">
+      <t>ガメンミギガワ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>スイイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イチニチ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>ヒダリガワ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>シタガワ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>スイイ</t>
+    </rPh>
+    <rPh sb="155" eb="156">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="158" eb="161">
+      <t>カシカ</t>
+    </rPh>
+    <rPh sb="171" eb="173">
+      <t>ニチブン</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>ヒョウキ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -572,7 +1099,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -615,6 +1142,42 @@
     <font>
       <sz val="10"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -789,7 +1352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -886,19 +1449,43 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1173,6 +1760,61 @@
         <a:xfrm>
           <a:off x="243840" y="152400"/>
           <a:ext cx="3374224" cy="4860330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>179207</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91FDAB33-7EE3-1F20-CB89-9D7D55FD53EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104775" y="66675"/>
+          <a:ext cx="7772400" cy="5256032"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2486,7 +3128,7 @@
     <row r="3" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>4</v>
@@ -2521,7 +3163,7 @@
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
@@ -3539,7 +4181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:N1000"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -4781,7 +5423,7 @@
         <v>20</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -5934,8 +6576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="G1:N1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6034,7 +6676,7 @@
         <v>17</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N5" s="2"/>
     </row>
@@ -6071,7 +6713,9 @@
         <v>27</v>
       </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
@@ -6185,7 +6829,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>57</v>
@@ -6208,7 +6852,7 @@
         <v>40</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="N14" s="2"/>
     </row>
@@ -7219,7 +7863,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="42.42578125" customWidth="1"/>
+    <col min="12" max="12" width="44.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="6:13" x14ac:dyDescent="0.25">
@@ -7253,7 +7897,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
@@ -7269,7 +7913,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>27</v>
@@ -7280,7 +7924,7 @@
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M4" s="2"/>
     </row>
@@ -7289,7 +7933,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>27</v>
@@ -7298,7 +7942,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M5" s="2"/>
     </row>
@@ -7307,7 +7951,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>27</v>
@@ -7316,7 +7960,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M6" s="2"/>
     </row>
@@ -7325,7 +7969,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>27</v>
@@ -7334,7 +7978,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M7" s="2"/>
     </row>
@@ -7352,8 +7996,8 @@
   </sheetPr>
   <dimension ref="J2:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7361,7 +8005,7 @@
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" customWidth="1"/>
     <col min="16" max="16" width="52.85546875" customWidth="1"/>
-    <col min="17" max="17" width="37.7109375" customWidth="1"/>
+    <col min="17" max="17" width="47" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="10:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7395,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>16</v>
@@ -7407,17 +8051,19 @@
         <v>20</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
+      <c r="Q3" s="14" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="4" spans="10:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J4" s="14">
         <v>2</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L4" s="14" t="s">
         <v>27</v>
@@ -7427,10 +8073,10 @@
         <v>20</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="14"/>
     </row>
@@ -7439,17 +8085,17 @@
         <v>3</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M5" s="14"/>
       <c r="N5" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
@@ -7459,17 +8105,17 @@
         <v>4</v>
       </c>
       <c r="K6" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="M6" s="14"/>
       <c r="N6" s="14" t="s">
         <v>20</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
@@ -7479,17 +8125,17 @@
         <v>5</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M7" s="14"/>
       <c r="N7" s="14" t="s">
         <v>20</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
@@ -7499,7 +8145,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L8" s="14" t="s">
         <v>27</v>
@@ -7509,13 +8155,13 @@
         <v>20</v>
       </c>
       <c r="O8" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="P8" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="P8" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q8" s="34" t="s">
-        <v>122</v>
+      <c r="Q8" s="32" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="10:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7523,7 +8169,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L9" s="14" t="s">
         <v>27</v>
@@ -7533,7 +8179,7 @@
         <v>20</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P9" s="31"/>
       <c r="Q9" s="33"/>
@@ -7543,7 +8189,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L10" s="14" t="s">
         <v>27</v>
@@ -7553,10 +8199,10 @@
         <v>20</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="14"/>
     </row>
@@ -7565,7 +8211,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L11" s="14" t="s">
         <v>27</v>
@@ -7575,10 +8221,10 @@
         <v>20</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="14"/>
     </row>
@@ -7587,7 +8233,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L12" s="14" t="s">
         <v>27</v>
@@ -7597,10 +8243,10 @@
         <v>20</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="14"/>
     </row>
@@ -7609,7 +8255,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L13" s="15" t="s">
         <v>27</v>
@@ -7619,10 +8265,10 @@
         <v>20</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P13" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="15"/>
     </row>
@@ -7631,20 +8277,20 @@
         <v>12</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M14" s="16"/>
       <c r="N14" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P14" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q14" s="16"/>
     </row>
@@ -7664,7 +8310,7 @@
   <dimension ref="H2:O18"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7707,180 +8353,200 @@
         <v>1</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
     </row>
     <row r="4" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="11"/>
+      <c r="H4" s="11">
+        <v>2</v>
+      </c>
       <c r="I4" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O4" s="11"/>
     </row>
     <row r="5" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H5" s="11"/>
+      <c r="H5" s="11">
+        <v>3</v>
+      </c>
       <c r="I5" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O5" s="11"/>
     </row>
     <row r="6" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H6" s="11"/>
+      <c r="H6" s="11">
+        <v>4</v>
+      </c>
       <c r="I6" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O6" s="11"/>
     </row>
     <row r="7" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H7" s="11"/>
+      <c r="H7" s="11">
+        <v>5</v>
+      </c>
       <c r="I7" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="O7" s="11"/>
     </row>
     <row r="8" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H8" s="11"/>
+      <c r="H8" s="11">
+        <v>6</v>
+      </c>
       <c r="I8" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
+      <c r="L8" s="11" t="s">
+        <v>101</v>
+      </c>
       <c r="M8" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="O8" s="11"/>
     </row>
     <row r="9" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="11"/>
+      <c r="H9" s="11">
+        <v>7</v>
+      </c>
       <c r="I9" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
     </row>
     <row r="10" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H10" s="11"/>
+      <c r="H10" s="11">
+        <v>8</v>
+      </c>
       <c r="I10" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
     </row>
     <row r="11" spans="8:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H11" s="11"/>
+      <c r="H11" s="11">
+        <v>9</v>
+      </c>
       <c r="I11" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O11" s="11"/>
     </row>
     <row r="12" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H12" s="11"/>
+      <c r="H12" s="11">
+        <v>10</v>
+      </c>
       <c r="I12" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M12" s="11" t="s">
         <v>17</v>
@@ -7889,7 +8555,9 @@
       <c r="O12" s="11"/>
     </row>
     <row r="13" spans="8:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H13" s="11"/>
+      <c r="H13" s="11">
+        <v>11</v>
+      </c>
       <c r="I13" s="11" t="s">
         <v>56</v>
       </c>
@@ -7898,20 +8566,22 @@
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N13" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="O13" s="36" t="s">
-        <v>123</v>
+        <v>115</v>
+      </c>
+      <c r="O13" s="35" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="8:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H14" s="11"/>
+      <c r="H14" s="11">
+        <v>12</v>
+      </c>
       <c r="I14" s="11" t="s">
         <v>58</v>
       </c>
@@ -7920,83 +8590,91 @@
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M14" s="11" t="s">
         <v>40</v>
       </c>
       <c r="N14" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="O14" s="35"/>
+        <v>114</v>
+      </c>
+      <c r="O14" s="36"/>
     </row>
     <row r="15" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H15" s="11"/>
+      <c r="H15" s="11">
+        <v>13</v>
+      </c>
       <c r="I15" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="N15" s="32" t="s">
-        <v>118</v>
+        <v>112</v>
+      </c>
+      <c r="N15" s="34" t="s">
+        <v>116</v>
       </c>
       <c r="O15" s="11"/>
     </row>
     <row r="16" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="11"/>
+      <c r="H16" s="11">
+        <v>14</v>
+      </c>
       <c r="I16" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N16" s="28"/>
       <c r="O16" s="11"/>
     </row>
     <row r="17" spans="8:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="11"/>
+      <c r="H17" s="11">
+        <v>15</v>
+      </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N17" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O17" s="11"/>
     </row>
     <row r="18" spans="8:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="11"/>
+      <c r="H18" s="11">
+        <v>16</v>
+      </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N18" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O18" s="11"/>
     </row>
@@ -8009,4 +8687,397 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3B82C3-7341-48F2-BBB6-D7533257DD43}">
+  <dimension ref="O2:V25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="16" max="16" width="26.42578125" customWidth="1"/>
+    <col min="20" max="20" width="24" customWidth="1"/>
+    <col min="21" max="21" width="59.7109375" customWidth="1"/>
+    <col min="22" max="22" width="7.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O3" s="37"/>
+      <c r="P3" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q3" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+    </row>
+    <row r="4" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O4" s="37"/>
+      <c r="P4" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="R4" s="38"/>
+      <c r="S4" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="T4" s="37"/>
+      <c r="U4" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="V4" s="37"/>
+    </row>
+    <row r="5" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O5" s="37"/>
+      <c r="P5" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q5" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="R5" s="38"/>
+      <c r="S5" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="T5" s="37"/>
+      <c r="U5" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="V5" s="37"/>
+    </row>
+    <row r="6" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O6" s="37"/>
+      <c r="P6" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="R6" s="38"/>
+      <c r="S6" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="T6" s="37"/>
+      <c r="U6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="V6" s="37"/>
+    </row>
+    <row r="7" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O7" s="37"/>
+      <c r="P7" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q7" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="R7" s="38"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="V7" s="37"/>
+    </row>
+    <row r="8" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O8" s="37"/>
+      <c r="P8" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q8" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="R8" s="38"/>
+      <c r="S8" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="T8" s="37"/>
+      <c r="U8" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="V8" s="37"/>
+    </row>
+    <row r="9" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O9" s="37"/>
+      <c r="P9" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q9" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="R9" s="37"/>
+      <c r="S9" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="T9" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="U9" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="V9" s="37"/>
+    </row>
+    <row r="10" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O10" s="37"/>
+      <c r="P10" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q10" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="R10" s="37"/>
+      <c r="S10" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="T10" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="U10" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="V10" s="37"/>
+    </row>
+    <row r="11" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O11" s="37"/>
+      <c r="P11" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q11" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="U11" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="V11" s="37"/>
+    </row>
+    <row r="12" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O12" s="37"/>
+      <c r="P12" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q12" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="R12" s="37"/>
+      <c r="S12" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="T12" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="U12" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="V12" s="37"/>
+    </row>
+    <row r="13" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O13" s="37"/>
+      <c r="P13" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q13" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="R13" s="38"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+    </row>
+    <row r="14" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O14" s="37"/>
+      <c r="P14" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q14" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="R14" s="37"/>
+      <c r="S14" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="T14" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="U14" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="V14" s="37"/>
+    </row>
+    <row r="15" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O15" s="37"/>
+      <c r="P15" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q15" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="U15" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="V15" s="37"/>
+    </row>
+    <row r="16" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O16" s="37"/>
+      <c r="P16" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q16" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="U16" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="V16" s="37"/>
+    </row>
+    <row r="17" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O17" s="37"/>
+      <c r="P17" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q17" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="U17" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="V17" s="37"/>
+    </row>
+    <row r="19" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O19" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+    </row>
+    <row r="20" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+    </row>
+    <row r="21" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+    </row>
+    <row r="22" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="43"/>
+    </row>
+    <row r="23" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+    </row>
+    <row r="24" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43"/>
+    </row>
+    <row r="25" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="O19:T25"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/画面設計書.xlsx
+++ b/画面設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n242322\Graduation_specification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\warashina\Graduation_specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4307A9-D414-4BFE-96DB-A08F1F588685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2538A0-19C4-4BDF-BE6B-D4821E7BDF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="ゲームリスト画面" sheetId="6" r:id="rId6"/>
     <sheet name="High＆Low" sheetId="7" r:id="rId7"/>
     <sheet name="ランキング" sheetId="8" r:id="rId8"/>
-    <sheet name="実績" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="124">
   <si>
     <t>メダルシステム制カジノ風サイト「Scot Medal Park」</t>
   </si>
@@ -221,6 +220,10 @@
   </si>
   <si>
     <t>5000、3000、2000$</t>
+  </si>
+  <si>
+    <t>データベースに保存されているユーザーの所持メダル数の
+降順に並べた時の上から3番目までの所持メダル数を表示する</t>
   </si>
   <si>
     <t>Game List</t>
@@ -390,6 +393,9 @@
     <t>裏向きのカードがめくられ、当たっていれば「WIN」、
 外れていれば「LOSE」と画面に表示される</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>押下時、ホーム画面に遷移する</t>
   </si>
   <si>
     <t>押下時、ホーム画面に遷移する</t>
@@ -528,41 +534,8 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ランキングはスクロールして
-TOP100まで閲覧できる</t>
-    <rPh sb="22" eb="24">
-      <t>エツラン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ランキングに表示されているニックネームのユーザの所持メダル数を表示する</t>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ショジ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>999枚まで賭けることができる</t>
-    <rPh sb="3" eb="4">
-      <t>マイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>bet数が所持メダル数を超えている、またはベット数が0枚の時、ボタンを押してもエラーが表示される</t>
+    <t>bet数が所持メダル数を超えていた場合、
+ボタンを押してもエラーが表示される</t>
     <rPh sb="3" eb="4">
       <t>スウ</t>
     </rPh>
@@ -575,522 +548,22 @@
     <rPh sb="12" eb="13">
       <t>コ</t>
     </rPh>
-    <rPh sb="24" eb="25">
-      <t>スウ</t>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
     </rPh>
-    <rPh sb="27" eb="28">
-      <t>マイ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
+    <rPh sb="25" eb="26">
       <t>オ</t>
     </rPh>
-    <rPh sb="43" eb="45">
+    <rPh sb="33" eb="35">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>総プレイ数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　750</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>総メダル獲得数　15500</t>
-    <rPh sb="0" eb="1">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>カクトクスウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>総メダル消費数　8700</t>
-    <rPh sb="0" eb="1">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ショウヒスウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>現在の所持メダル　10000</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ゲーム、プレイ数、獲得数</t>
-    <rPh sb="7" eb="8">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>カクトクスウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>High &amp; Low</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>300</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　5000</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Poker　200　4000</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>BlackJack　150　3500</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>Roulette　100　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3000</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>playCount</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>getCount</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>lostCount</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>MyMedal</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>HLplayCount,HLgetCount</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>PKplayCount,PKgetCount</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>BJplayCount,BJgetCount</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>RLplayCount,RLgetCount</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>押下時、ショップ画面に遷移する</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>押下時、実績画面に遷移する</t>
-    <rPh sb="4" eb="6">
-      <t>ジッセキ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>押下時、ランキング画面に遷移する</t>
-    <rPh sb="2" eb="3">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>全てのゲームのプレイ回数の合計が表示される</t>
-    <rPh sb="0" eb="1">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>全てのゲームの獲得数の合計が表示される</t>
-    <rPh sb="0" eb="1">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>カクトクスウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>全てのゲームの消費数の合計が表示される</t>
-    <rPh sb="0" eb="1">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ショウヒスウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>現在の所持メダルが表示される</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>High &amp; Lowのプレイ回数と獲得数が表示される</t>
-    <rPh sb="14" eb="16">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>カクトクスウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ルーレットのプレイ回数と獲得数が表示される</t>
-    <rPh sb="9" eb="11">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>カクトクスウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ブラックジャックのプレイ回数と獲得数が表示される</t>
-    <rPh sb="12" eb="14">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>カクトクスウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ポーカーのプレイ回数と獲得数が表示される</t>
-    <rPh sb="8" eb="10">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>カクトクスウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>グラフを画面右側に表示させ、タイトルに「所持メダル　推移」と表示。
-一日のうち</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0:00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>と</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>23:59</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>に所持メダルのデータを集計し、
-データが同じだった場合はグラフには何も記録しない。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>変化があった場合は、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>23:59</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>時点の所持メダル数を表記させる。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-左側に所持メダル数、下側に日付を記録し、所持メダルの推移をグラフ化して可視化する。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>グラフは10日分表記される。</t>
-    </r>
-    <rPh sb="4" eb="8">
-      <t>ガメンミギガワ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ショジ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>スイイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>イチニチ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ショジ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>シュウケイ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>キロク</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>ヘンカ</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>ジテン</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>ショジ</t>
-    </rPh>
-    <rPh sb="114" eb="115">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="116" eb="118">
-      <t>ヒョウキ</t>
-    </rPh>
-    <rPh sb="123" eb="125">
-      <t>ヒダリガワ</t>
-    </rPh>
-    <rPh sb="126" eb="128">
-      <t>ショジ</t>
-    </rPh>
-    <rPh sb="131" eb="132">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="133" eb="135">
-      <t>シタガワ</t>
-    </rPh>
-    <rPh sb="136" eb="138">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="139" eb="141">
-      <t>キロク</t>
-    </rPh>
-    <rPh sb="143" eb="145">
-      <t>ショジ</t>
-    </rPh>
-    <rPh sb="149" eb="151">
-      <t>スイイ</t>
-    </rPh>
-    <rPh sb="155" eb="156">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="158" eb="161">
-      <t>カシカ</t>
-    </rPh>
-    <rPh sb="171" eb="173">
-      <t>ニチブン</t>
-    </rPh>
-    <rPh sb="173" eb="175">
-      <t>ヒョウキ</t>
+    <t>ランキングはスクロールして
+TOP100まで閲覧できる</t>
+    <rPh sb="22" eb="24">
+      <t>エツラン</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1099,7 +572,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1142,42 +615,6 @@
     <font>
       <sz val="10"/>
       <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -1352,7 +789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1449,43 +886,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1760,61 +1173,6 @@
         <a:xfrm>
           <a:off x="243840" y="152400"/>
           <a:ext cx="3374224" cy="4860330"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>179207</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91FDAB33-7EE3-1F20-CB89-9D7D55FD53EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="104775" y="66675"/>
-          <a:ext cx="7772400" cy="5256032"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3128,7 +2486,7 @@
     <row r="3" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>4</v>
@@ -3163,7 +2521,7 @@
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
@@ -4181,7 +3539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -5423,7 +4781,7 @@
         <v>20</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -6576,8 +5934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="G1:N1000"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6676,7 +6034,7 @@
         <v>17</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N5" s="2"/>
     </row>
@@ -6713,9 +6071,7 @@
         <v>27</v>
       </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="K7" s="2"/>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
@@ -6829,7 +6185,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>57</v>
@@ -6852,7 +6208,7 @@
         <v>40</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="N14" s="2"/>
     </row>
@@ -7863,7 +7219,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="44.85546875" customWidth="1"/>
+    <col min="12" max="12" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="6:13" x14ac:dyDescent="0.25">
@@ -7897,7 +7253,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
@@ -7913,7 +7269,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>27</v>
@@ -7924,7 +7280,7 @@
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M4" s="2"/>
     </row>
@@ -7933,7 +7289,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>27</v>
@@ -7942,7 +7298,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M5" s="2"/>
     </row>
@@ -7951,7 +7307,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>27</v>
@@ -7960,7 +7316,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M6" s="2"/>
     </row>
@@ -7969,7 +7325,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>27</v>
@@ -7978,7 +7334,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M7" s="2"/>
     </row>
@@ -7996,8 +7352,8 @@
   </sheetPr>
   <dimension ref="J2:Q14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8005,7 +7361,7 @@
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" customWidth="1"/>
     <col min="16" max="16" width="52.85546875" customWidth="1"/>
-    <col min="17" max="17" width="47" customWidth="1"/>
+    <col min="17" max="17" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="10:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8039,7 +7395,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>16</v>
@@ -8051,19 +7407,17 @@
         <v>20</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P3" s="14"/>
-      <c r="Q3" s="14" t="s">
-        <v>122</v>
-      </c>
+      <c r="Q3" s="14"/>
     </row>
     <row r="4" spans="10:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J4" s="14">
         <v>2</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L4" s="14" t="s">
         <v>27</v>
@@ -8073,10 +7427,10 @@
         <v>20</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="14"/>
     </row>
@@ -8085,17 +7439,17 @@
         <v>3</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" s="14"/>
       <c r="N5" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="O5" s="14" t="s">
         <v>101</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>100</v>
       </c>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
@@ -8105,17 +7459,17 @@
         <v>4</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M6" s="14"/>
       <c r="N6" s="14" t="s">
         <v>20</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
@@ -8125,17 +7479,17 @@
         <v>5</v>
       </c>
       <c r="K7" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" s="14" t="s">
         <v>74</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>73</v>
       </c>
       <c r="M7" s="14"/>
       <c r="N7" s="14" t="s">
         <v>20</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
@@ -8145,7 +7499,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L8" s="14" t="s">
         <v>27</v>
@@ -8155,13 +7509,13 @@
         <v>20</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P8" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q8" s="32" t="s">
-        <v>123</v>
+        <v>106</v>
+      </c>
+      <c r="Q8" s="34" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="10:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8169,7 +7523,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L9" s="14" t="s">
         <v>27</v>
@@ -8179,7 +7533,7 @@
         <v>20</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P9" s="31"/>
       <c r="Q9" s="33"/>
@@ -8189,7 +7543,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L10" s="14" t="s">
         <v>27</v>
@@ -8199,10 +7553,10 @@
         <v>20</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q10" s="14"/>
     </row>
@@ -8211,7 +7565,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L11" s="14" t="s">
         <v>27</v>
@@ -8221,10 +7575,10 @@
         <v>20</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="14"/>
     </row>
@@ -8233,7 +7587,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="14" t="s">
         <v>27</v>
@@ -8243,10 +7597,10 @@
         <v>20</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="14"/>
     </row>
@@ -8255,7 +7609,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L13" s="15" t="s">
         <v>27</v>
@@ -8265,10 +7619,10 @@
         <v>20</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P13" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="15"/>
     </row>
@@ -8277,20 +7631,20 @@
         <v>12</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M14" s="16"/>
       <c r="N14" s="16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P14" s="16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q14" s="16"/>
     </row>
@@ -8310,7 +7664,7 @@
   <dimension ref="H2:O18"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8353,200 +7707,180 @@
         <v>1</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
     </row>
     <row r="4" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="11">
-        <v>2</v>
-      </c>
+      <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O4" s="11"/>
     </row>
     <row r="5" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H5" s="11">
-        <v>3</v>
-      </c>
+      <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O5" s="11"/>
     </row>
     <row r="6" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H6" s="11">
-        <v>4</v>
-      </c>
+      <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O6" s="11"/>
     </row>
     <row r="7" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H7" s="11">
-        <v>5</v>
-      </c>
+      <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="O7" s="11"/>
     </row>
     <row r="8" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H8" s="11">
-        <v>6</v>
-      </c>
+      <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J8" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="11"/>
+      <c r="I9" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="O8" s="11"/>
-    </row>
-    <row r="9" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="11">
-        <v>7</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>98</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
     </row>
     <row r="10" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H10" s="11">
-        <v>8</v>
-      </c>
+      <c r="H10" s="11"/>
       <c r="I10" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
     </row>
     <row r="11" spans="8:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H11" s="11">
-        <v>9</v>
-      </c>
+      <c r="H11" s="11"/>
       <c r="I11" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O11" s="11"/>
     </row>
     <row r="12" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H12" s="11">
-        <v>10</v>
-      </c>
+      <c r="H12" s="11"/>
       <c r="I12" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M12" s="11" t="s">
         <v>17</v>
@@ -8555,9 +7889,7 @@
       <c r="O12" s="11"/>
     </row>
     <row r="13" spans="8:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H13" s="11">
-        <v>11</v>
-      </c>
+      <c r="H13" s="11"/>
       <c r="I13" s="11" t="s">
         <v>56</v>
       </c>
@@ -8566,22 +7898,20 @@
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N13" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="O13" s="35" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="O13" s="36" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="8:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H14" s="11">
-        <v>12</v>
-      </c>
+      <c r="H14" s="11"/>
       <c r="I14" s="11" t="s">
         <v>58</v>
       </c>
@@ -8590,91 +7920,83 @@
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M14" s="11" t="s">
         <v>40</v>
       </c>
       <c r="N14" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="O14" s="36"/>
+        <v>116</v>
+      </c>
+      <c r="O14" s="35"/>
     </row>
     <row r="15" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H15" s="11">
-        <v>13</v>
-      </c>
+      <c r="H15" s="11"/>
       <c r="I15" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="N15" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
+      </c>
+      <c r="N15" s="32" t="s">
+        <v>118</v>
       </c>
       <c r="O15" s="11"/>
     </row>
     <row r="16" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="11">
-        <v>14</v>
-      </c>
+      <c r="H16" s="11"/>
       <c r="I16" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="M16" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="N16" s="28"/>
       <c r="O16" s="11"/>
     </row>
     <row r="17" spans="8:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="11">
-        <v>15</v>
-      </c>
+      <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N17" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O17" s="11"/>
     </row>
     <row r="18" spans="8:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="11">
-        <v>16</v>
-      </c>
+      <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N18" s="13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O18" s="11"/>
     </row>
@@ -8687,397 +8009,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3B82C3-7341-48F2-BBB6-D7533257DD43}">
-  <dimension ref="O2:V25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="16" max="16" width="26.42578125" customWidth="1"/>
-    <col min="20" max="20" width="24" customWidth="1"/>
-    <col min="21" max="21" width="59.7109375" customWidth="1"/>
-    <col min="22" max="22" width="7.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="O2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O3" s="37"/>
-      <c r="P3" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q3" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="R3" s="38"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-    </row>
-    <row r="4" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="O4" s="37"/>
-      <c r="P4" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q4" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="R4" s="38"/>
-      <c r="S4" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="T4" s="37"/>
-      <c r="U4" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="V4" s="37"/>
-    </row>
-    <row r="5" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="O5" s="37"/>
-      <c r="P5" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q5" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="R5" s="38"/>
-      <c r="S5" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="T5" s="37"/>
-      <c r="U5" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="V5" s="37"/>
-    </row>
-    <row r="6" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="O6" s="37"/>
-      <c r="P6" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q6" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="R6" s="38"/>
-      <c r="S6" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="T6" s="37"/>
-      <c r="U6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="V6" s="37"/>
-    </row>
-    <row r="7" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="O7" s="37"/>
-      <c r="P7" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q7" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="R7" s="38"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="V7" s="37"/>
-    </row>
-    <row r="8" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="O8" s="37"/>
-      <c r="P8" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q8" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="R8" s="38"/>
-      <c r="S8" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="T8" s="37"/>
-      <c r="U8" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="V8" s="37"/>
-    </row>
-    <row r="9" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="O9" s="37"/>
-      <c r="P9" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q9" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="R9" s="37"/>
-      <c r="S9" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="T9" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="U9" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="V9" s="37"/>
-    </row>
-    <row r="10" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O10" s="37"/>
-      <c r="P10" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q10" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="R10" s="37"/>
-      <c r="S10" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="T10" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="U10" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="V10" s="37"/>
-    </row>
-    <row r="11" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O11" s="37"/>
-      <c r="P11" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q11" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="U11" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="V11" s="37"/>
-    </row>
-    <row r="12" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O12" s="37"/>
-      <c r="P12" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q12" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="R12" s="37"/>
-      <c r="S12" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="T12" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="U12" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="V12" s="37"/>
-    </row>
-    <row r="13" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O13" s="37"/>
-      <c r="P13" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q13" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="R13" s="38"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-    </row>
-    <row r="14" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="O14" s="37"/>
-      <c r="P14" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q14" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="R14" s="37"/>
-      <c r="S14" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="T14" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="U14" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="V14" s="37"/>
-    </row>
-    <row r="15" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O15" s="37"/>
-      <c r="P15" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q15" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="U15" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="V15" s="37"/>
-    </row>
-    <row r="16" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O16" s="37"/>
-      <c r="P16" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q16" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="U16" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="V16" s="37"/>
-    </row>
-    <row r="17" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O17" s="37"/>
-      <c r="P17" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q17" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="U17" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="V17" s="37"/>
-    </row>
-    <row r="19" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O19" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="43"/>
-    </row>
-    <row r="20" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="43"/>
-    </row>
-    <row r="21" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="43"/>
-    </row>
-    <row r="22" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="43"/>
-      <c r="V22" s="43"/>
-    </row>
-    <row r="23" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="43"/>
-      <c r="V23" s="43"/>
-    </row>
-    <row r="24" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="43"/>
-    </row>
-    <row r="25" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="43"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="O19:T25"/>
-  </mergeCells>
-  <phoneticPr fontId="4"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/画面設計書.xlsx
+++ b/画面設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n242322\Graduation_specification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\warashina\Graduation_specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4307A9-D414-4BFE-96DB-A08F1F588685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D548011-DED1-4352-889E-BF2C955CC566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="152">
   <si>
     <t>メダルシステム制カジノ風サイト「Scot Medal Park」</t>
   </si>
@@ -177,9 +177,6 @@
 画面を閉じる動作は表示されている所以外をクリックする</t>
   </si>
   <si>
-    <t>PUROFILE</t>
-  </si>
-  <si>
     <t>GAME LIST</t>
   </si>
   <si>
@@ -320,10 +317,6 @@
   </si>
   <si>
     <t>RANKING</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>PUROFILE</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -893,28 +886,8 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>グラフを画面右側に表示させ、タイトルに「所持メダル　推移」と表示。
-一日のうち</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0:00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>と</t>
+      <t xml:space="preserve">グラフを画面右側に表示させ、タイトルに「所持メダル　推移」と表示。
+</t>
     </r>
     <r>
       <rPr>
@@ -934,8 +907,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>に所持メダルのデータを集計し、
-データが同じだった場合はグラフには何も記録しない。</t>
+      <t>に所持メダルのデータを集計し所持メダル数を表記させる。</t>
     </r>
     <r>
       <rPr>
@@ -957,39 +929,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>変化があった場合は、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>23:59</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>時点の所持メダル数を表記させる。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-左側に所持メダル数、下側に日付を記録し、所持メダルの推移をグラフ化して可視化する。
+      <t xml:space="preserve">左側に所持メダル数、下側に日付を記録し、所持メダルの推移をグラフ化して可視化する。
 </t>
     </r>
     <r>
@@ -1017,81 +957,61 @@
     <rPh sb="30" eb="32">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="34" eb="36">
-      <t>イチニチ</t>
+    <rPh sb="40" eb="42">
+      <t>ショジ</t>
     </rPh>
     <rPh sb="50" eb="52">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
       <t>ショジ</t>
     </rPh>
+    <rPh sb="58" eb="59">
+      <t>スウ</t>
+    </rPh>
     <rPh sb="60" eb="62">
-      <t>シュウケイ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ヒダリガワ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>シタガワ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
       <t>キロク</t>
     </rPh>
-    <rPh sb="91" eb="93">
-      <t>ヘンカ</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>ジテン</t>
-    </rPh>
-    <rPh sb="109" eb="111">
+    <rPh sb="87" eb="89">
       <t>ショジ</t>
     </rPh>
-    <rPh sb="114" eb="115">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="116" eb="118">
+    <rPh sb="93" eb="95">
+      <t>スイイ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="102" eb="105">
+      <t>カシカ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ニチブン</t>
+    </rPh>
+    <rPh sb="117" eb="119">
       <t>ヒョウキ</t>
     </rPh>
-    <rPh sb="123" eb="125">
-      <t>ヒダリガワ</t>
-    </rPh>
-    <rPh sb="126" eb="128">
-      <t>ショジ</t>
-    </rPh>
-    <rPh sb="131" eb="132">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="133" eb="135">
-      <t>シタガワ</t>
-    </rPh>
-    <rPh sb="136" eb="138">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="139" eb="141">
-      <t>キロク</t>
-    </rPh>
-    <rPh sb="143" eb="145">
-      <t>ショジ</t>
-    </rPh>
-    <rPh sb="149" eb="151">
-      <t>スイイ</t>
-    </rPh>
-    <rPh sb="155" eb="156">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="158" eb="161">
-      <t>カシカ</t>
-    </rPh>
-    <rPh sb="171" eb="173">
-      <t>ニチブン</t>
-    </rPh>
-    <rPh sb="173" eb="175">
-      <t>ヒョウキ</t>
-    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>PROFILE</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1404,6 +1324,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1464,29 +1402,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1585,40 +1505,56 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>15241</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2333625" cy="3848100"/>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>446171</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>473159</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image2.png">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE7EA83B-9785-D482-039F-9F6FBC8826FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15241" y="255270"/>
+          <a:ext cx="2564530" cy="3669749"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1720,23 +1656,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>141514</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>108858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>415759</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>113070</xdr:rowOff>
+      <xdr:colOff>496885</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>163196</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F606060-9EED-9763-EBA9-11303FB38754}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAEA83DA-5E70-9ACF-D3D8-D2164AEA2DF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1758,8 +1694,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="243840" y="152400"/>
-          <a:ext cx="3374224" cy="4860330"/>
+          <a:off x="141514" y="108858"/>
+          <a:ext cx="3566657" cy="5203281"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1776,22 +1712,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>179207</xdr:rowOff>
+      <xdr:colOff>345885</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>50259</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
+        <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91FDAB33-7EE3-1F20-CB89-9D7D55FD53EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF2F303B-E26D-8751-C037-D8A65575C4F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1813,8 +1749,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="104775" y="66675"/>
-          <a:ext cx="7772400" cy="5256032"/>
+          <a:off x="190500" y="144780"/>
+          <a:ext cx="7737285" cy="5224239"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2038,72 +1974,72 @@
   <sheetData>
     <row r="1" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
     </row>
     <row r="6" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
     </row>
     <row r="7" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="19">
+      <c r="B8" s="25">
         <v>45940</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
     </row>
     <row r="9" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
     </row>
     <row r="10" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
     </row>
     <row r="13" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
     </row>
     <row r="14" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3128,45 +3064,45 @@
     <row r="3" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="21"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="29">
         <v>45940</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="24"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11">
         <v>2</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="33">
         <v>45947</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
     </row>
     <row r="7" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5423,7 +5359,7 @@
         <v>20</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -5511,46 +5447,46 @@
     <row r="8" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
     </row>
     <row r="11" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
     </row>
     <row r="12" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
     </row>
     <row r="13" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
     </row>
     <row r="14" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
@@ -5559,14 +5495,14 @@
       <c r="C14" s="8">
         <v>45940</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
     </row>
     <row r="15" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
@@ -6576,8 +6512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="G1:N1000"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6623,7 +6559,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>27</v>
@@ -6643,7 +6579,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>27</v>
@@ -6656,7 +6592,7 @@
         <v>17</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N4" s="2"/>
     </row>
@@ -6665,7 +6601,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>27</v>
@@ -6676,7 +6612,7 @@
         <v>17</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N5" s="2"/>
     </row>
@@ -6685,7 +6621,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>27</v>
@@ -6698,7 +6634,7 @@
         <v>17</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N6" s="2"/>
     </row>
@@ -6707,20 +6643,20 @@
         <v>5</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N7" s="2"/>
     </row>
@@ -6747,7 +6683,7 @@
         <v>7</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>16</v>
@@ -6765,7 +6701,7 @@
         <v>8</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>16</v>
@@ -6783,7 +6719,7 @@
         <v>9</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>16</v>
@@ -6794,7 +6730,7 @@
         <v>40</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N11" s="2"/>
     </row>
@@ -6803,7 +6739,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>16</v>
@@ -6821,7 +6757,7 @@
         <v>11</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>16</v>
@@ -6829,10 +6765,10 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N13" s="2"/>
     </row>
@@ -6841,7 +6777,7 @@
         <v>12</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>16</v>
@@ -6852,7 +6788,7 @@
         <v>40</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N14" s="2"/>
     </row>
@@ -7897,7 +7833,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
@@ -7913,7 +7849,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>27</v>
@@ -7924,7 +7860,7 @@
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M4" s="2"/>
     </row>
@@ -7933,7 +7869,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>27</v>
@@ -7942,7 +7878,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M5" s="2"/>
     </row>
@@ -7951,7 +7887,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>27</v>
@@ -7960,7 +7896,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M6" s="2"/>
     </row>
@@ -7969,7 +7905,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>27</v>
@@ -7978,7 +7914,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M7" s="2"/>
     </row>
@@ -8039,7 +7975,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>16</v>
@@ -8051,11 +7987,11 @@
         <v>20</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="10:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8063,7 +7999,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L4" s="14" t="s">
         <v>27</v>
@@ -8073,10 +8009,10 @@
         <v>20</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q4" s="14"/>
     </row>
@@ -8085,17 +8021,17 @@
         <v>3</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M5" s="14"/>
       <c r="N5" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
@@ -8105,17 +8041,17 @@
         <v>4</v>
       </c>
       <c r="K6" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="14" t="s">
         <v>72</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>73</v>
       </c>
       <c r="M6" s="14"/>
       <c r="N6" s="14" t="s">
         <v>20</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
@@ -8125,17 +8061,17 @@
         <v>5</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M7" s="14"/>
       <c r="N7" s="14" t="s">
         <v>20</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
@@ -8145,7 +8081,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L8" s="14" t="s">
         <v>27</v>
@@ -8155,13 +8091,13 @@
         <v>20</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="P8" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q8" s="32" t="s">
-        <v>123</v>
+        <v>102</v>
+      </c>
+      <c r="P8" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q8" s="38" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="10:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8169,7 +8105,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L9" s="14" t="s">
         <v>27</v>
@@ -8179,17 +8115,17 @@
         <v>20</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="33"/>
+        <v>102</v>
+      </c>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="39"/>
     </row>
     <row r="10" spans="10:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J10" s="14">
         <v>8</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L10" s="14" t="s">
         <v>27</v>
@@ -8199,10 +8135,10 @@
         <v>20</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="14"/>
     </row>
@@ -8211,7 +8147,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L11" s="14" t="s">
         <v>27</v>
@@ -8221,10 +8157,10 @@
         <v>20</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="14"/>
     </row>
@@ -8233,7 +8169,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L12" s="14" t="s">
         <v>27</v>
@@ -8243,10 +8179,10 @@
         <v>20</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="14"/>
     </row>
@@ -8255,7 +8191,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L13" s="15" t="s">
         <v>27</v>
@@ -8265,10 +8201,10 @@
         <v>20</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P13" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="15"/>
     </row>
@@ -8277,20 +8213,20 @@
         <v>12</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M14" s="16"/>
       <c r="N14" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P14" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q14" s="16"/>
     </row>
@@ -8310,7 +8246,7 @@
   <dimension ref="H2:O18"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8353,15 +8289,15 @@
         <v>1</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -8371,20 +8307,20 @@
         <v>2</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O4" s="11"/>
     </row>
@@ -8393,20 +8329,20 @@
         <v>3</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M5" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="N5" s="11" t="s">
         <v>104</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>106</v>
       </c>
       <c r="O5" s="11"/>
     </row>
@@ -8415,20 +8351,20 @@
         <v>4</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O6" s="11"/>
     </row>
@@ -8437,18 +8373,18 @@
         <v>5</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O7" s="11"/>
     </row>
@@ -8457,20 +8393,20 @@
         <v>6</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O8" s="11"/>
     </row>
@@ -8479,17 +8415,17 @@
         <v>7</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
@@ -8499,15 +8435,15 @@
         <v>8</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
@@ -8517,20 +8453,20 @@
         <v>9</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O11" s="11"/>
     </row>
@@ -8539,14 +8475,14 @@
         <v>10</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M12" s="11" t="s">
         <v>17</v>
@@ -8559,23 +8495,23 @@
         <v>11</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N13" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="O13" s="35" t="s">
-        <v>120</v>
+        <v>113</v>
+      </c>
+      <c r="O13" s="41" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="8:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8583,42 +8519,42 @@
         <v>12</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J14" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M14" s="11" t="s">
         <v>40</v>
       </c>
       <c r="N14" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="O14" s="36"/>
+        <v>112</v>
+      </c>
+      <c r="O14" s="42"/>
     </row>
     <row r="15" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H15" s="11">
         <v>13</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="N15" s="34" t="s">
-        <v>116</v>
+        <v>110</v>
+      </c>
+      <c r="N15" s="40" t="s">
+        <v>114</v>
       </c>
       <c r="O15" s="11"/>
     </row>
@@ -8627,19 +8563,19 @@
         <v>14</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="N16" s="28"/>
+        <v>98</v>
+      </c>
+      <c r="N16" s="34"/>
       <c r="O16" s="11"/>
     </row>
     <row r="17" spans="8:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8648,15 +8584,15 @@
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N17" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O17" s="11"/>
     </row>
@@ -8666,15 +8602,15 @@
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N18" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O18" s="11"/>
     </row>
@@ -8694,7 +8630,7 @@
   <dimension ref="O2:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8733,344 +8669,344 @@
       </c>
     </row>
     <row r="3" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O3" s="37"/>
-      <c r="P3" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q3" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="R3" s="38"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="R3" s="18"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
     </row>
     <row r="4" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="O4" s="37"/>
-      <c r="P4" s="38" t="s">
+      <c r="O4" s="17"/>
+      <c r="P4" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="R4" s="18"/>
+      <c r="S4" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="T4" s="17"/>
+      <c r="U4" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="V4" s="17"/>
+    </row>
+    <row r="5" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O5" s="17"/>
+      <c r="P5" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="R5" s="18"/>
+      <c r="S5" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="T5" s="17"/>
+      <c r="U5" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="V5" s="17"/>
+    </row>
+    <row r="6" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O6" s="17"/>
+      <c r="P6" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="Q4" s="39" t="s">
+      <c r="Q6" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="R6" s="18"/>
+      <c r="S6" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="R4" s="38"/>
-      <c r="S4" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="T4" s="37"/>
-      <c r="U4" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="V4" s="37"/>
-    </row>
-    <row r="5" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="O5" s="37"/>
-      <c r="P5" s="38" t="s">
+      <c r="T6" s="17"/>
+      <c r="U6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="V6" s="17"/>
+    </row>
+    <row r="7" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O7" s="17"/>
+      <c r="P7" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="Q5" s="39" t="s">
+      <c r="Q7" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="R7" s="18"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="V7" s="17"/>
+    </row>
+    <row r="8" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O8" s="17"/>
+      <c r="P8" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="R8" s="18"/>
+      <c r="S8" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="R5" s="38"/>
-      <c r="S5" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="T5" s="37"/>
-      <c r="U5" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="V5" s="37"/>
-    </row>
-    <row r="6" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="O6" s="37"/>
-      <c r="P6" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q6" s="39" t="s">
+      <c r="T8" s="17"/>
+      <c r="U8" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="V8" s="17"/>
+    </row>
+    <row r="9" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O9" s="17"/>
+      <c r="P9" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="R9" s="17"/>
+      <c r="S9" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="R6" s="38"/>
-      <c r="S6" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="T6" s="37"/>
-      <c r="U6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="V6" s="37"/>
-    </row>
-    <row r="7" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="O7" s="37"/>
-      <c r="P7" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q7" s="39" t="s">
+      <c r="T9" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="U9" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="V9" s="17"/>
+    </row>
+    <row r="10" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O10" s="17"/>
+      <c r="P10" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="R10" s="17"/>
+      <c r="S10" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="R7" s="38"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="V7" s="37"/>
-    </row>
-    <row r="8" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="O8" s="37"/>
-      <c r="P8" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q8" s="39" t="s">
+      <c r="T10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="U10" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="V10" s="17"/>
+    </row>
+    <row r="11" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O11" s="17"/>
+      <c r="P11" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="U11" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="V11" s="17"/>
+    </row>
+    <row r="12" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O12" s="17"/>
+      <c r="P12" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="R12" s="17"/>
+      <c r="S12" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="R8" s="38"/>
-      <c r="S8" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="T8" s="37"/>
-      <c r="U8" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="V8" s="37"/>
-    </row>
-    <row r="9" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="O9" s="37"/>
-      <c r="P9" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q9" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="R9" s="37"/>
-      <c r="S9" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="T9" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="U9" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="V9" s="37"/>
-    </row>
-    <row r="10" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O10" s="37"/>
-      <c r="P10" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q10" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="R10" s="37"/>
-      <c r="S10" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="T10" s="38" t="s">
+      <c r="T12" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="U10" s="39" t="s">
+      <c r="U12" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="V10" s="37"/>
-    </row>
-    <row r="11" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O11" s="37"/>
-      <c r="P11" s="39" t="s">
+      <c r="V12" s="17"/>
+    </row>
+    <row r="13" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O13" s="17"/>
+      <c r="P13" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="Q11" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="38" t="s">
+      <c r="Q13" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="R13" s="18"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+    </row>
+    <row r="14" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O14" s="17"/>
+      <c r="P14" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="R14" s="17"/>
+      <c r="S14" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="T14" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="U11" s="39" t="s">
+      <c r="U14" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="V11" s="37"/>
-    </row>
-    <row r="12" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O12" s="37"/>
-      <c r="P12" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q12" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="R12" s="37"/>
-      <c r="S12" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="T12" s="38" t="s">
+      <c r="V14" s="17"/>
+    </row>
+    <row r="15" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O15" s="17"/>
+      <c r="P15" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="U12" s="39" t="s">
+      <c r="U15" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="V15" s="17"/>
+    </row>
+    <row r="16" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O16" s="17"/>
+      <c r="P16" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q16" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="U16" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="V16" s="17"/>
+    </row>
+    <row r="17" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O17" s="17"/>
+      <c r="P17" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q17" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="U17" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="V12" s="37"/>
-    </row>
-    <row r="13" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O13" s="37"/>
-      <c r="P13" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q13" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="R13" s="38"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-    </row>
-    <row r="14" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="O14" s="37"/>
-      <c r="P14" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q14" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="R14" s="37"/>
-      <c r="S14" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="T14" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="U14" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="V14" s="37"/>
-    </row>
-    <row r="15" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O15" s="37"/>
-      <c r="P15" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q15" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="U15" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="V15" s="37"/>
-    </row>
-    <row r="16" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O16" s="37"/>
-      <c r="P16" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q16" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="U16" s="41" t="s">
+      <c r="V17" s="17"/>
+    </row>
+    <row r="19" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O19" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="V16" s="37"/>
-    </row>
-    <row r="17" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O17" s="37"/>
-      <c r="P17" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q17" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="U17" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="V17" s="37"/>
-    </row>
-    <row r="19" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O19" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="43"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
     </row>
     <row r="20" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="43"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
     </row>
     <row r="21" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="43"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
     </row>
     <row r="22" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="43"/>
-      <c r="V22" s="43"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
     </row>
     <row r="23" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="43"/>
-      <c r="V23" s="43"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
     </row>
     <row r="24" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="43"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
     </row>
     <row r="25" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="43"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/画面設計書.xlsx
+++ b/画面設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\warashina\Graduation_specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D548011-DED1-4352-889E-BF2C955CC566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37148FC-0637-4597-95FA-89E46F55A53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45" yWindow="1185" windowWidth="28230" windowHeight="13590" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -7932,8 +7932,8 @@
   </sheetPr>
   <dimension ref="J2:Q14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8629,7 +8629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3B82C3-7341-48F2-BBB6-D7533257DD43}">
   <dimension ref="O2:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>

--- a/画面設計書.xlsx
+++ b/画面設計書.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\warashina\Graduation_specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37148FC-0637-4597-95FA-89E46F55A53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE0CE45-4E1A-492B-A463-1AFB76D2A47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="1185" windowWidth="28230" windowHeight="13590" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
     <sheet name="改版履歴" sheetId="2" r:id="rId2"/>
     <sheet name="ログイン" sheetId="3" r:id="rId3"/>
-    <sheet name="プロフィール" sheetId="4" r:id="rId4"/>
-    <sheet name="ホーム画面" sheetId="5" r:id="rId5"/>
-    <sheet name="ゲームリスト画面" sheetId="6" r:id="rId6"/>
-    <sheet name="High＆Low" sheetId="7" r:id="rId7"/>
-    <sheet name="ランキング" sheetId="8" r:id="rId8"/>
-    <sheet name="実績" sheetId="9" r:id="rId9"/>
+    <sheet name="新規登録" sheetId="11" r:id="rId4"/>
+    <sheet name="プロフィール" sheetId="4" r:id="rId5"/>
+    <sheet name="ホーム画面" sheetId="5" r:id="rId6"/>
+    <sheet name="ゲームリスト画面" sheetId="6" r:id="rId7"/>
+    <sheet name="High＆Low" sheetId="7" r:id="rId8"/>
+    <sheet name="ランキング" sheetId="8" r:id="rId9"/>
+    <sheet name="実績" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="165">
   <si>
     <t>メダルシステム制カジノ風サイト「Scot Medal Park」</t>
   </si>
@@ -170,11 +171,6 @@
   </si>
   <si>
     <t>honour</t>
-  </si>
-  <si>
-    <t>補足
-プロフィールはボタンを押下した際にポップアップ形式で表示させる
-画面を閉じる動作は表示されている所以外をクリックする</t>
   </si>
   <si>
     <t>GAME LIST</t>
@@ -1012,6 +1008,125 @@
   </si>
   <si>
     <t>PROFILE</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>補足
+プロフィールはボタンを押下した際にポップアップ形式で表示させる
+画面を閉じる動作は表示されている所以外をクリックする</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>押下した際、ログアウトしログイン画面に遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ログインID</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>テキストボックス</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>確認用パスワード</t>
+    <rPh sb="0" eb="3">
+      <t>カクニンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>loginPassCheck</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>押下後、ログイン画面に遷移する</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クリックし選択後、確認用パスワードを入力できる</t>
+    <rPh sb="9" eb="12">
+      <t>カクニンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Nickname</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>loginID</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クリックし選択後、ログインIDを入力できる</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>登録</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ログインIDがすでにデータベースに保存されているユーザーと被った場合、「すでにそのログインIDは使用されています」とエラー表示させる
+登録ボタンを押下した際、loginPassとloginPassCheckが異なる場合、「パスワードと確認用パスワードを一致させてください」とエラー表示が出る</t>
+    <rPh sb="17" eb="19">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カブ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="117" eb="120">
+      <t>カクニンヨウ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>デ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1272,7 +1387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1408,6 +1523,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1466,44 +1593,115 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>27477</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2114550" cy="2381250"/>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>338777</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image4.png">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DFD13BF-7B2C-D402-262D-4F96AC2CDE9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="129540" y="149397"/>
+          <a:ext cx="3034352" cy="4510233"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>51436</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>382318</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79CE21B6-6D7D-FF77-9266-71CD5C526AB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="51436" y="64770"/>
+          <a:ext cx="3660822" cy="3543300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1558,7 +1756,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1597,7 +1795,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1652,7 +1850,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1707,7 +1905,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3041,6 +3239,399 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3B82C3-7341-48F2-BBB6-D7533257DD43}">
+  <dimension ref="O2:V25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="16" max="16" width="26.42578125" customWidth="1"/>
+    <col min="20" max="20" width="24" customWidth="1"/>
+    <col min="21" max="21" width="59.7109375" customWidth="1"/>
+    <col min="22" max="22" width="7.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O3" s="17"/>
+      <c r="P3" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="R3" s="18"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+    </row>
+    <row r="4" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O4" s="17"/>
+      <c r="P4" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="R4" s="18"/>
+      <c r="S4" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="T4" s="17"/>
+      <c r="U4" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="V4" s="17"/>
+    </row>
+    <row r="5" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O5" s="17"/>
+      <c r="P5" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="R5" s="18"/>
+      <c r="S5" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="T5" s="17"/>
+      <c r="U5" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="V5" s="17"/>
+    </row>
+    <row r="6" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O6" s="17"/>
+      <c r="P6" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="R6" s="18"/>
+      <c r="S6" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="T6" s="17"/>
+      <c r="U6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="V6" s="17"/>
+    </row>
+    <row r="7" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O7" s="17"/>
+      <c r="P7" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="R7" s="18"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="V7" s="17"/>
+    </row>
+    <row r="8" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O8" s="17"/>
+      <c r="P8" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="R8" s="18"/>
+      <c r="S8" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="T8" s="17"/>
+      <c r="U8" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="V8" s="17"/>
+    </row>
+    <row r="9" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O9" s="17"/>
+      <c r="P9" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="R9" s="17"/>
+      <c r="S9" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="T9" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="U9" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="V9" s="17"/>
+    </row>
+    <row r="10" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O10" s="17"/>
+      <c r="P10" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="R10" s="17"/>
+      <c r="S10" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="T10" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="U10" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="V10" s="17"/>
+    </row>
+    <row r="11" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O11" s="17"/>
+      <c r="P11" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="U11" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="V11" s="17"/>
+    </row>
+    <row r="12" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O12" s="17"/>
+      <c r="P12" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="R12" s="17"/>
+      <c r="S12" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="T12" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="U12" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="V12" s="17"/>
+    </row>
+    <row r="13" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O13" s="17"/>
+      <c r="P13" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q13" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="R13" s="18"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+    </row>
+    <row r="14" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O14" s="17"/>
+      <c r="P14" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="R14" s="17"/>
+      <c r="S14" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="T14" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U14" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="V14" s="17"/>
+    </row>
+    <row r="15" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O15" s="17"/>
+      <c r="P15" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="U15" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="V15" s="17"/>
+    </row>
+    <row r="16" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O16" s="17"/>
+      <c r="P16" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q16" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="U16" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="V16" s="17"/>
+    </row>
+    <row r="17" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O17" s="17"/>
+      <c r="P17" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q17" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="U17" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="V17" s="17"/>
+    </row>
+    <row r="19" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O19" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+    </row>
+    <row r="20" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+    </row>
+    <row r="21" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+    </row>
+    <row r="22" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+    </row>
+    <row r="23" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+    </row>
+    <row r="24" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+    </row>
+    <row r="25" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="O19:T25"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:G1000"/>
@@ -3064,7 +3655,7 @@
     <row r="3" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>4</v>
@@ -3099,7 +3690,7 @@
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
@@ -5296,11 +5887,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:N1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5524F297-082D-4B87-9DEE-EE0B46ACC5A1}">
+  <dimension ref="B1:O1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5308,227 +5899,1498 @@
     <col min="1" max="1" width="2.140625" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="7" width="7.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="11" width="7.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" customWidth="1"/>
-    <col min="13" max="13" width="39.5703125" customWidth="1"/>
-    <col min="14" max="26" width="7.5703125" customWidth="1"/>
+    <col min="4" max="8" width="7.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+    <col min="11" max="12" width="7.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" customWidth="1"/>
+    <col min="14" max="14" width="52.42578125" customWidth="1"/>
+    <col min="15" max="15" width="53.140625" customWidth="1"/>
+    <col min="16" max="27" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G2" s="2" t="s">
+    <row r="1" spans="8:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="11" t="s">
         <v>8</v>
       </c>
+      <c r="J2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="12">
+        <v>1</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="11"/>
+    </row>
+    <row r="4" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="12">
+        <v>2</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="12">
+        <v>3</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="12">
+        <v>100</v>
+      </c>
+      <c r="L5" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="12">
+        <v>4</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="12">
+        <v>50</v>
+      </c>
+      <c r="L6" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="12">
+        <v>4</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="12">
+        <v>50</v>
+      </c>
+      <c r="L7" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="12">
+        <v>5</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="45"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+    </row>
+    <row r="11" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+    </row>
+    <row r="12" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+    </row>
+    <row r="13" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+    </row>
+    <row r="14" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+    </row>
+    <row r="15" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+    </row>
+    <row r="20" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+    </row>
+    <row r="21" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="8">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H10:N14"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B1:P1000"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="9" width="7.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="13" width="7.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" customWidth="1"/>
+    <col min="15" max="15" width="49" customWidth="1"/>
+    <col min="16" max="28" width="7.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="9:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="9:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="2">
+    <row r="3" spans="9:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2"/>
+      <c r="M3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="2">
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="9:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="2">
         <v>2</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="2">
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="9:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="2">
         <v>3</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G6" s="2">
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="9:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="2">
         <v>4</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G7" s="2">
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="9:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="10">
         <v>5</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="J7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="K7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G10" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+    </row>
+    <row r="8" spans="9:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="11">
+        <v>6</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="P8" s="17"/>
+    </row>
+    <row r="9" spans="9:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="9:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="35" t="s">
+        <v>151</v>
+      </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
       <c r="N10" s="24"/>
-    </row>
-    <row r="11" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+    </row>
+    <row r="11" spans="9:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
       <c r="N11" s="24"/>
-    </row>
-    <row r="12" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+    </row>
+    <row r="12" spans="9:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
       <c r="N12" s="24"/>
-    </row>
-    <row r="13" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+    </row>
+    <row r="13" spans="9:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
       <c r="L13" s="24"/>
       <c r="M13" s="24"/>
       <c r="N13" s="24"/>
-    </row>
-    <row r="14" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="8">
-        <v>45940</v>
-      </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+    </row>
+    <row r="14" spans="9:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
-    </row>
-    <row r="15" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+    </row>
+    <row r="15" spans="9:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="9:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="8">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6499,7 +8361,7 @@
     <row r="1000" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G10:N14"/>
+    <mergeCell ref="I10:P14"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -6508,7 +8370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="G1:N1000"/>
   <sheetViews>
@@ -6559,7 +8421,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>27</v>
@@ -6579,7 +8441,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>27</v>
@@ -6592,7 +8454,7 @@
         <v>17</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N4" s="2"/>
     </row>
@@ -6601,7 +8463,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>27</v>
@@ -6612,7 +8474,7 @@
         <v>17</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N5" s="2"/>
     </row>
@@ -6621,7 +8483,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>27</v>
@@ -6634,7 +8496,7 @@
         <v>17</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N6" s="2"/>
     </row>
@@ -6643,20 +8505,20 @@
         <v>5</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N7" s="2"/>
     </row>
@@ -6683,7 +8545,7 @@
         <v>7</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>16</v>
@@ -6701,7 +8563,7 @@
         <v>8</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>16</v>
@@ -6719,7 +8581,7 @@
         <v>9</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>16</v>
@@ -6730,7 +8592,7 @@
         <v>40</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N11" s="2"/>
     </row>
@@ -6739,7 +8601,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>16</v>
@@ -6757,7 +8619,7 @@
         <v>11</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>16</v>
@@ -6765,10 +8627,10 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N13" s="2"/>
     </row>
@@ -6777,7 +8639,7 @@
         <v>12</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>16</v>
@@ -6788,7 +8650,7 @@
         <v>40</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N14" s="2"/>
     </row>
@@ -7786,7 +9648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7833,7 +9695,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
@@ -7849,7 +9711,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>27</v>
@@ -7860,7 +9722,7 @@
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M4" s="2"/>
     </row>
@@ -7869,7 +9731,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>27</v>
@@ -7878,7 +9740,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M5" s="2"/>
     </row>
@@ -7887,7 +9749,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>27</v>
@@ -7896,7 +9758,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M6" s="2"/>
     </row>
@@ -7905,7 +9767,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>27</v>
@@ -7914,7 +9776,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M7" s="2"/>
     </row>
@@ -7925,14 +9787,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="J2:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
@@ -7975,7 +9837,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>16</v>
@@ -7987,11 +9849,11 @@
         <v>20</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="10:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7999,7 +9861,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L4" s="14" t="s">
         <v>27</v>
@@ -8009,10 +9871,10 @@
         <v>20</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q4" s="14"/>
     </row>
@@ -8021,17 +9883,17 @@
         <v>3</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M5" s="14"/>
       <c r="N5" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
@@ -8041,17 +9903,17 @@
         <v>4</v>
       </c>
       <c r="K6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="14" t="s">
         <v>71</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>72</v>
       </c>
       <c r="M6" s="14"/>
       <c r="N6" s="14" t="s">
         <v>20</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
@@ -8061,17 +9923,17 @@
         <v>5</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M7" s="14"/>
       <c r="N7" s="14" t="s">
         <v>20</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
@@ -8081,7 +9943,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L8" s="14" t="s">
         <v>27</v>
@@ -8091,13 +9953,13 @@
         <v>20</v>
       </c>
       <c r="O8" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="P8" s="36" t="s">
-        <v>103</v>
-      </c>
       <c r="Q8" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="10:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8105,7 +9967,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L9" s="14" t="s">
         <v>27</v>
@@ -8115,7 +9977,7 @@
         <v>20</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P9" s="37"/>
       <c r="Q9" s="39"/>
@@ -8125,7 +9987,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L10" s="14" t="s">
         <v>27</v>
@@ -8135,10 +9997,10 @@
         <v>20</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="14"/>
     </row>
@@ -8147,7 +10009,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L11" s="14" t="s">
         <v>27</v>
@@ -8157,10 +10019,10 @@
         <v>20</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="14"/>
     </row>
@@ -8169,7 +10031,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L12" s="14" t="s">
         <v>27</v>
@@ -8179,10 +10041,10 @@
         <v>20</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="14"/>
     </row>
@@ -8191,7 +10053,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L13" s="15" t="s">
         <v>27</v>
@@ -8201,10 +10063,10 @@
         <v>20</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P13" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="15"/>
     </row>
@@ -8213,20 +10075,20 @@
         <v>12</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M14" s="16"/>
       <c r="N14" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P14" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q14" s="16"/>
     </row>
@@ -8241,7 +10103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C7C3F7-CAD5-4A6E-8502-B193A9F2B942}">
   <dimension ref="H2:O18"/>
   <sheetViews>
@@ -8289,15 +10151,15 @@
         <v>1</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -8307,20 +10169,20 @@
         <v>2</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O4" s="11"/>
     </row>
@@ -8329,20 +10191,20 @@
         <v>3</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O5" s="11"/>
     </row>
@@ -8351,20 +10213,20 @@
         <v>4</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O6" s="11"/>
     </row>
@@ -8373,18 +10235,18 @@
         <v>5</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O7" s="11"/>
     </row>
@@ -8393,20 +10255,20 @@
         <v>6</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O8" s="11"/>
     </row>
@@ -8415,17 +10277,17 @@
         <v>7</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
@@ -8435,15 +10297,15 @@
         <v>8</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
@@ -8453,20 +10315,20 @@
         <v>9</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O11" s="11"/>
     </row>
@@ -8475,14 +10337,14 @@
         <v>10</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M12" s="11" t="s">
         <v>17</v>
@@ -8495,23 +10357,23 @@
         <v>11</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N13" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O13" s="41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="8:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8519,20 +10381,20 @@
         <v>12</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J14" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M14" s="11" t="s">
         <v>40</v>
       </c>
       <c r="N14" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O14" s="42"/>
     </row>
@@ -8541,20 +10403,20 @@
         <v>13</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N15" s="40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O15" s="11"/>
     </row>
@@ -8563,17 +10425,17 @@
         <v>14</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N16" s="34"/>
       <c r="O16" s="11"/>
@@ -8584,15 +10446,15 @@
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N17" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O17" s="11"/>
     </row>
@@ -8602,15 +10464,15 @@
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N18" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O18" s="11"/>
     </row>
@@ -8623,397 +10485,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3B82C3-7341-48F2-BBB6-D7533257DD43}">
-  <dimension ref="O2:V25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="16" max="16" width="26.42578125" customWidth="1"/>
-    <col min="20" max="20" width="24" customWidth="1"/>
-    <col min="21" max="21" width="59.7109375" customWidth="1"/>
-    <col min="22" max="22" width="7.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="O2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O3" s="17"/>
-      <c r="P3" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="R3" s="18"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-    </row>
-    <row r="4" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="O4" s="17"/>
-      <c r="P4" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="R4" s="18"/>
-      <c r="S4" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="T4" s="17"/>
-      <c r="U4" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="V4" s="17"/>
-    </row>
-    <row r="5" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="O5" s="17"/>
-      <c r="P5" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="R5" s="18"/>
-      <c r="S5" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="T5" s="17"/>
-      <c r="U5" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="V5" s="17"/>
-    </row>
-    <row r="6" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="O6" s="17"/>
-      <c r="P6" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="R6" s="18"/>
-      <c r="S6" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="T6" s="17"/>
-      <c r="U6" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="V6" s="17"/>
-    </row>
-    <row r="7" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="O7" s="17"/>
-      <c r="P7" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q7" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="R7" s="18"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="V7" s="17"/>
-    </row>
-    <row r="8" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="O8" s="17"/>
-      <c r="P8" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="R8" s="18"/>
-      <c r="S8" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="T8" s="17"/>
-      <c r="U8" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="V8" s="17"/>
-    </row>
-    <row r="9" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="O9" s="17"/>
-      <c r="P9" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q9" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="R9" s="17"/>
-      <c r="S9" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="T9" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="U9" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="V9" s="17"/>
-    </row>
-    <row r="10" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O10" s="17"/>
-      <c r="P10" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q10" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="R10" s="17"/>
-      <c r="S10" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="T10" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="U10" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="V10" s="17"/>
-    </row>
-    <row r="11" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O11" s="17"/>
-      <c r="P11" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q11" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="U11" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="V11" s="17"/>
-    </row>
-    <row r="12" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O12" s="17"/>
-      <c r="P12" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q12" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="R12" s="17"/>
-      <c r="S12" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="T12" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="U12" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="V12" s="17"/>
-    </row>
-    <row r="13" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O13" s="17"/>
-      <c r="P13" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q13" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="R13" s="18"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-    </row>
-    <row r="14" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="O14" s="17"/>
-      <c r="P14" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q14" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="R14" s="17"/>
-      <c r="S14" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="T14" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="U14" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="V14" s="17"/>
-    </row>
-    <row r="15" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O15" s="17"/>
-      <c r="P15" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q15" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="U15" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="V15" s="17"/>
-    </row>
-    <row r="16" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O16" s="17"/>
-      <c r="P16" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q16" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="U16" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="V16" s="17"/>
-    </row>
-    <row r="17" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O17" s="17"/>
-      <c r="P17" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q17" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="U17" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="V17" s="17"/>
-    </row>
-    <row r="19" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O19" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-    </row>
-    <row r="20" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-    </row>
-    <row r="21" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
-    </row>
-    <row r="22" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-    </row>
-    <row r="23" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
-    </row>
-    <row r="24" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-    </row>
-    <row r="25" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="O19:T25"/>
-  </mergeCells>
-  <phoneticPr fontId="4"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/画面設計書.xlsx
+++ b/画面設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\warashina\Graduation_specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE0CE45-4E1A-492B-A463-1AFB76D2A47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9317649-B557-482A-B200-96EC78577258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="630" windowWidth="23010" windowHeight="12210" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="新規登録" sheetId="11" r:id="rId4"/>
     <sheet name="プロフィール" sheetId="4" r:id="rId5"/>
     <sheet name="ホーム画面" sheetId="5" r:id="rId6"/>
-    <sheet name="ゲームリスト画面" sheetId="6" r:id="rId7"/>
-    <sheet name="High＆Low" sheetId="7" r:id="rId8"/>
+    <sheet name="High＆Low" sheetId="7" r:id="rId7"/>
+    <sheet name="ゲームリスト画面" sheetId="6" r:id="rId8"/>
     <sheet name="ランキング" sheetId="8" r:id="rId9"/>
     <sheet name="実績" sheetId="9" r:id="rId10"/>
   </sheets>
@@ -1387,7 +1387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1457,6 +1457,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1494,6 +1500,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1522,18 +1531,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1758,45 +1755,6 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3810000" cy="5543550"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image5.png" title="画像">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1847,6 +1805,45 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3810000" cy="5543550"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image5.png" title="画像">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2172,72 +2169,72 @@
   <sheetData>
     <row r="1" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
     </row>
     <row r="7" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="25">
+      <c r="B8" s="27">
         <v>45940</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
     </row>
     <row r="13" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
     </row>
     <row r="14" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3243,7 +3240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3B82C3-7341-48F2-BBB6-D7533257DD43}">
   <dimension ref="O2:V25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
@@ -3551,74 +3548,74 @@
       <c r="V17" s="17"/>
     </row>
     <row r="19" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O19" s="43" t="s">
+      <c r="O19" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
       <c r="U19" s="22"/>
       <c r="V19" s="22"/>
     </row>
     <row r="20" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
       <c r="U20" s="22"/>
       <c r="V20" s="22"/>
     </row>
     <row r="21" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
       <c r="U21" s="22"/>
       <c r="V21" s="22"/>
     </row>
     <row r="22" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
       <c r="U22" s="22"/>
       <c r="V22" s="22"/>
     </row>
     <row r="23" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
       <c r="U23" s="22"/>
       <c r="V23" s="22"/>
     </row>
     <row r="24" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
       <c r="U24" s="22"/>
       <c r="V24" s="22"/>
     </row>
     <row r="25" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="47"/>
       <c r="U25" s="22"/>
       <c r="V25" s="22"/>
     </row>
@@ -3657,43 +3654,43 @@
       <c r="B4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="26" t="s">
+      <c r="D4" s="29"/>
+      <c r="E4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="27"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="31">
         <v>45940</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31" t="s">
+      <c r="D5" s="32"/>
+      <c r="E5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="30"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11">
         <v>2</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="35">
         <v>45947</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34" t="s">
+      <c r="D6" s="35"/>
+      <c r="E6" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
     </row>
     <row r="7" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5890,7 +5887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5524F297-082D-4B87-9DEE-EE0B46ACC5A1}">
   <dimension ref="B1:O1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -5967,7 +5964,7 @@
         <v>155</v>
       </c>
       <c r="K4" s="11"/>
-      <c r="L4" s="47" t="s">
+      <c r="L4" s="24" t="s">
         <v>98</v>
       </c>
       <c r="M4" s="11" t="s">
@@ -5991,7 +5988,7 @@
       <c r="K5" s="12">
         <v>100</v>
       </c>
-      <c r="L5" s="47" t="s">
+      <c r="L5" s="24" t="s">
         <v>20</v>
       </c>
       <c r="M5" s="11" t="s">
@@ -6015,7 +6012,7 @@
       <c r="K6" s="12">
         <v>50</v>
       </c>
-      <c r="L6" s="47" t="s">
+      <c r="L6" s="24" t="s">
         <v>20</v>
       </c>
       <c r="M6" s="11" t="s">
@@ -6039,7 +6036,7 @@
       <c r="K7" s="12">
         <v>50</v>
       </c>
-      <c r="L7" s="47" t="s">
+      <c r="L7" s="24" t="s">
         <v>20</v>
       </c>
       <c r="M7" s="11" t="s">
@@ -6061,7 +6058,7 @@
         <v>27</v>
       </c>
       <c r="K8" s="11"/>
-      <c r="L8" s="47" t="s">
+      <c r="L8" s="24" t="s">
         <v>98</v>
       </c>
       <c r="M8" s="11"/>
@@ -6071,67 +6068,67 @@
       <c r="O8" s="11"/>
     </row>
     <row r="9" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="45"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H10" s="48" t="s">
+      <c r="H10" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
     </row>
     <row r="11" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
     </row>
     <row r="12" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
     </row>
     <row r="13" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
     </row>
     <row r="14" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
     </row>
     <row r="15" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="23"/>
     </row>
     <row r="20" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
     </row>
     <row r="21" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7143,7 +7140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
@@ -7308,56 +7305,56 @@
     </row>
     <row r="9" spans="9:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="9:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I10" s="35" t="s">
+      <c r="I10" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
     </row>
     <row r="11" spans="9:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
     </row>
     <row r="12" spans="9:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
     </row>
     <row r="13" spans="9:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
     </row>
     <row r="14" spans="9:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
     </row>
     <row r="15" spans="9:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="9:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9649,145 +9646,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="F2:M7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="12" max="12" width="44.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F4" s="2">
-        <v>2</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F5" s="2">
-        <v>3</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F6" s="2">
-        <v>4</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F7" s="2">
-        <v>5</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M7" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -9955,10 +9813,10 @@
       <c r="O8" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="P8" s="36" t="s">
+      <c r="P8" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="Q8" s="38" t="s">
+      <c r="Q8" s="41" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9979,8 +9837,8 @@
       <c r="O9" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="39"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="42"/>
     </row>
     <row r="10" spans="10:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J10" s="14">
@@ -10097,6 +9955,145 @@
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="Q8:Q9"/>
   </mergeCells>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="F2:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="44.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F5" s="2">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F6" s="2">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10372,7 +10369,7 @@
       <c r="N13" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="O13" s="41" t="s">
+      <c r="O13" s="44" t="s">
         <v>117</v>
       </c>
     </row>
@@ -10396,7 +10393,7 @@
       <c r="N14" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="O14" s="42"/>
+      <c r="O14" s="45"/>
     </row>
     <row r="15" spans="8:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H15" s="11">
@@ -10415,7 +10412,7 @@
       <c r="M15" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="N15" s="40" t="s">
+      <c r="N15" s="43" t="s">
         <v>113</v>
       </c>
       <c r="O15" s="11"/>
@@ -10437,7 +10434,7 @@
       <c r="M16" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="N16" s="34"/>
+      <c r="N16" s="36"/>
       <c r="O16" s="11"/>
     </row>
     <row r="17" spans="8:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/画面設計書.xlsx
+++ b/画面設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\warashina\Graduation_specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9317649-B557-482A-B200-96EC78577258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107C216F-D9A5-4A4B-A1B6-81BCC0A4891A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="630" windowWidth="23010" windowHeight="12210" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9795" yWindow="1365" windowWidth="13650" windowHeight="13200" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="157">
   <si>
     <t>メダルシステム制カジノ風サイト「Scot Medal Park」</t>
   </si>
@@ -708,38 +708,6 @@
       </rPr>
       <t>3000</t>
     </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>playCount</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>getCount</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>lostCount</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>MyMedal</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>HLplayCount,HLgetCount</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>PKplayCount,PKgetCount</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>BJplayCount,BJgetCount</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>RLplayCount,RLgetCount</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1906,23 +1874,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>345885</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>50259</xdr:rowOff>
+      <xdr:colOff>466272</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
+        <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF2F303B-E26D-8751-C037-D8A65575C4F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E7BD36E-A114-7371-C6FF-EDE4D660E751}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1944,8 +1912,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="190500" y="144780"/>
-          <a:ext cx="7737285" cy="5224239"/>
+          <a:off x="923925" y="57150"/>
+          <a:ext cx="7124247" cy="4781550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3240,15 +3208,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3B82C3-7341-48F2-BBB6-D7533257DD43}">
   <dimension ref="O2:V25"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="16" max="16" width="26.42578125" customWidth="1"/>
-    <col min="20" max="20" width="24" customWidth="1"/>
+    <col min="20" max="20" width="17.85546875" customWidth="1"/>
     <col min="21" max="21" width="59.7109375" customWidth="1"/>
     <col min="22" max="22" width="7.7109375" customWidth="1"/>
   </cols>
@@ -3280,7 +3248,9 @@
       </c>
     </row>
     <row r="3" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O3" s="17"/>
+      <c r="O3" s="17">
+        <v>1</v>
+      </c>
       <c r="P3" s="18" t="s">
         <v>90</v>
       </c>
@@ -3294,9 +3264,11 @@
       <c r="V3" s="17"/>
     </row>
     <row r="4" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="O4" s="17"/>
+      <c r="O4" s="17">
+        <v>2</v>
+      </c>
       <c r="P4" s="18" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="Q4" s="19" t="s">
         <v>96</v>
@@ -3312,7 +3284,9 @@
       <c r="V4" s="17"/>
     </row>
     <row r="5" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="O5" s="17"/>
+      <c r="O5" s="17">
+        <v>3</v>
+      </c>
       <c r="P5" s="18" t="s">
         <v>87</v>
       </c>
@@ -3330,7 +3304,9 @@
       <c r="V5" s="17"/>
     </row>
     <row r="6" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="O6" s="17"/>
+      <c r="O6" s="17">
+        <v>4</v>
+      </c>
       <c r="P6" s="18" t="s">
         <v>88</v>
       </c>
@@ -3348,7 +3324,9 @@
       <c r="V6" s="17"/>
     </row>
     <row r="7" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="O7" s="17"/>
+      <c r="O7" s="17">
+        <v>5</v>
+      </c>
       <c r="P7" s="18" t="s">
         <v>89</v>
       </c>
@@ -3359,12 +3337,14 @@
       <c r="S7" s="19"/>
       <c r="T7" s="17"/>
       <c r="U7" s="11" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="V7" s="17"/>
     </row>
     <row r="8" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="O8" s="17"/>
+      <c r="O8" s="17">
+        <v>6</v>
+      </c>
       <c r="P8" s="18" t="s">
         <v>86</v>
       </c>
@@ -3377,12 +3357,14 @@
       </c>
       <c r="T8" s="17"/>
       <c r="U8" s="11" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="V8" s="17"/>
     </row>
     <row r="9" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="O9" s="17"/>
+      <c r="O9" s="17">
+        <v>7</v>
+      </c>
       <c r="P9" s="20" t="s">
         <v>121</v>
       </c>
@@ -3393,16 +3375,16 @@
       <c r="S9" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="T9" s="18" t="s">
-        <v>130</v>
-      </c>
+      <c r="T9" s="18"/>
       <c r="U9" s="19" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="V9" s="17"/>
     </row>
     <row r="10" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O10" s="17"/>
+      <c r="O10" s="17">
+        <v>8</v>
+      </c>
       <c r="P10" s="19" t="s">
         <v>122</v>
       </c>
@@ -3413,16 +3395,16 @@
       <c r="S10" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="T10" s="18" t="s">
-        <v>131</v>
-      </c>
+      <c r="T10" s="18"/>
       <c r="U10" s="19" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="V10" s="17"/>
     </row>
     <row r="11" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O11" s="17"/>
+      <c r="O11" s="17">
+        <v>9</v>
+      </c>
       <c r="P11" s="19" t="s">
         <v>123</v>
       </c>
@@ -3431,16 +3413,16 @@
       </c>
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
-      <c r="T11" s="18" t="s">
-        <v>132</v>
-      </c>
+      <c r="T11" s="18"/>
       <c r="U11" s="19" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="V11" s="17"/>
     </row>
     <row r="12" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O12" s="17"/>
+      <c r="O12" s="17">
+        <v>10</v>
+      </c>
       <c r="P12" s="19" t="s">
         <v>124</v>
       </c>
@@ -3451,16 +3433,16 @@
       <c r="S12" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="T12" s="18" t="s">
-        <v>133</v>
-      </c>
+      <c r="T12" s="18"/>
       <c r="U12" s="19" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="V12" s="17"/>
     </row>
     <row r="13" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O13" s="17"/>
+      <c r="O13" s="17">
+        <v>11</v>
+      </c>
       <c r="P13" s="19" t="s">
         <v>125</v>
       </c>
@@ -3474,7 +3456,9 @@
       <c r="V13" s="17"/>
     </row>
     <row r="14" spans="15:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="O14" s="17"/>
+      <c r="O14" s="17">
+        <v>12</v>
+      </c>
       <c r="P14" s="18" t="s">
         <v>126</v>
       </c>
@@ -3485,16 +3469,16 @@
       <c r="S14" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="T14" s="18" t="s">
-        <v>134</v>
-      </c>
+      <c r="T14" s="18"/>
       <c r="U14" s="18" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="V14" s="17"/>
     </row>
     <row r="15" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O15" s="17"/>
+      <c r="O15" s="17">
+        <v>13</v>
+      </c>
       <c r="P15" s="18" t="s">
         <v>127</v>
       </c>
@@ -3503,16 +3487,16 @@
       </c>
       <c r="R15" s="17"/>
       <c r="S15" s="17"/>
-      <c r="T15" s="18" t="s">
-        <v>135</v>
-      </c>
+      <c r="T15" s="18"/>
       <c r="U15" s="21" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="V15" s="17"/>
     </row>
     <row r="16" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O16" s="17"/>
+      <c r="O16" s="17">
+        <v>14</v>
+      </c>
       <c r="P16" s="18" t="s">
         <v>128</v>
       </c>
@@ -3521,16 +3505,16 @@
       </c>
       <c r="R16" s="17"/>
       <c r="S16" s="17"/>
-      <c r="T16" s="18" t="s">
-        <v>136</v>
-      </c>
+      <c r="T16" s="18"/>
       <c r="U16" s="21" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="V16" s="17"/>
     </row>
     <row r="17" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O17" s="17"/>
+      <c r="O17" s="17">
+        <v>15</v>
+      </c>
       <c r="P17" s="18" t="s">
         <v>129</v>
       </c>
@@ -3539,17 +3523,15 @@
       </c>
       <c r="R17" s="17"/>
       <c r="S17" s="17"/>
-      <c r="T17" s="18" t="s">
-        <v>137</v>
-      </c>
+      <c r="T17" s="18"/>
       <c r="U17" s="21" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="V17" s="17"/>
     </row>
     <row r="19" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O19" s="46" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="P19" s="47"/>
       <c r="Q19" s="47"/>
@@ -5958,20 +5940,20 @@
         <v>2</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="24" t="s">
         <v>98</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="O4" s="11"/>
     </row>
@@ -5992,7 +5974,7 @@
         <v>20</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N5" s="11" t="s">
         <v>22</v>
@@ -6028,7 +6010,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>19</v>
@@ -6040,10 +6022,10 @@
         <v>20</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="O7" s="11"/>
     </row>
@@ -6052,7 +6034,7 @@
         <v>5</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>27</v>
@@ -6063,7 +6045,7 @@
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="11" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="O8" s="11"/>
     </row>
@@ -6073,7 +6055,7 @@
     </row>
     <row r="10" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H10" s="37" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="I10" s="37"/>
       <c r="J10" s="37"/>
@@ -7140,7 +7122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
@@ -7288,7 +7270,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>96</v>
@@ -7299,14 +7281,14 @@
       </c>
       <c r="N8" s="11"/>
       <c r="O8" s="11" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="P8" s="17"/>
     </row>
     <row r="9" spans="9:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="9:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I10" s="38" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="J10" s="26"/>
       <c r="K10" s="26"/>
@@ -8418,7 +8400,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>27</v>
@@ -10166,7 +10148,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>96</v>
@@ -10243,7 +10225,7 @@
         <v>101</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="O7" s="11"/>
     </row>
@@ -10265,7 +10247,7 @@
         <v>101</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="O8" s="11"/>
     </row>
